--- a/ConsoleApplication1/Book1.xlsx
+++ b/ConsoleApplication1/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>#</t>
   </si>
@@ -28,20 +28,26 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Huan HOANG</t>
+  </si>
+  <si>
+    <t>huanhvhd@gmail.com</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +63,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,17 +112,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,14 +483,15 @@
     <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="72.75" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+    <row r="1" spans="1:11" ht="72.75" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -450,30 +502,56 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="3">
+        <v>1001.2</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="4" spans="1:11">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4">
         <f>SUM(D3:D5)</f>
-        <v>0</v>
+        <v>1001.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ConsoleApplication1/Book1.xlsx
+++ b/ConsoleApplication1/Book1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -474,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +555,16 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>